--- a/extras/TicTacToe/lead_board.xlsx
+++ b/extras/TicTacToe/lead_board.xlsx
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>40.84250354766846</v>
+        <v>38.19159865379333</v>
       </c>
     </row>
     <row r="3">
